--- a/도서대여 프로젝트/도서정보 테이블명세.xlsx
+++ b/도서대여 프로젝트/도서정보 테이블명세.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보테이블" sheetId="5" r:id="rId1"/>
     <sheet name="출판사정보테이블" sheetId="8" r:id="rId2"/>
     <sheet name="저자정보테이블" sheetId="10" r:id="rId3"/>
+    <sheet name="고객정보테이블" sheetId="11" r:id="rId4"/>
+    <sheet name="도서대여정보테이블 " sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="149">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -412,6 +414,158 @@
   </si>
   <si>
     <t xml:space="preserve"> 저자정보를 저장할 Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_buyer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 고객정보를 저장할 Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu_birth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu_addr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서대여정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_book_rent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대여정보를 저장할 Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반납일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정문자열(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_sdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_isbn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_bcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>br_edate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라라라라랄라_</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -696,20 +850,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -717,21 +865,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,6 +904,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1055,24 +1212,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="23"/>
-    <col min="2" max="2" width="9.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="23"/>
-    <col min="6" max="6" width="14.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="23"/>
-    <col min="8" max="8" width="11.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="23"/>
-    <col min="10" max="10" width="13.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="9.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="16"/>
+    <col min="6" max="6" width="14.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="16"/>
+    <col min="8" max="8" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="16"/>
+    <col min="10" max="10" width="13.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1080,415 +1237,417 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3">
+      <c r="I2" s="20"/>
+      <c r="J2" s="2">
         <v>44315</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="15">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="19"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="19"/>
+      <c r="J8" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="18">
+      <c r="B9" s="11">
         <v>4</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="19"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="18">
+      <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="19"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="18">
+      <c r="B11" s="11">
         <v>6</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="19"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="18">
+      <c r="B12" s="11">
         <v>7</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="19"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="18">
+      <c r="B13" s="11">
         <v>8</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="19"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="18">
+      <c r="B14" s="11">
         <v>9</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="19"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="18">
+      <c r="B15" s="11">
         <v>10</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="19"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="18">
+      <c r="B16" s="11">
         <v>11</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="19"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="18">
+      <c r="B17" s="11">
         <v>12</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="19"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="18">
+      <c r="B18" s="11">
         <v>13</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="19"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="18">
+      <c r="B19" s="11">
         <v>14</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="19"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="18">
+      <c r="B20" s="11">
         <v>15</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="19"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="22">
+      <c r="B21" s="15">
         <v>16</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1515,18 +1674,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="23"/>
-    <col min="2" max="2" width="9.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="23"/>
-    <col min="6" max="6" width="14.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="23"/>
-    <col min="8" max="8" width="11.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="23"/>
-    <col min="10" max="10" width="13.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="9.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="16"/>
+    <col min="6" max="6" width="14.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="16"/>
+    <col min="8" max="8" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="16"/>
+    <col min="10" max="10" width="13.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1534,401 +1693,1265 @@
       <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3">
+      <c r="I2" s="20"/>
+      <c r="J2" s="2">
         <v>44315</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="15">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="19"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="19"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="18">
+      <c r="B9" s="11">
         <v>4</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="19"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="18">
+      <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="19"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="18">
+      <c r="B11" s="11">
         <v>6</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="19"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="18">
+      <c r="B12" s="11">
         <v>7</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="19"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="18">
+      <c r="B13" s="11">
         <v>8</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="19"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="18">
+      <c r="B14" s="11">
         <v>9</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="19"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="18">
+      <c r="B15" s="11">
         <v>10</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="19"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="18">
+      <c r="B16" s="11">
         <v>11</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="19"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="18">
+      <c r="B17" s="11">
         <v>12</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="19"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="18">
+      <c r="B18" s="11">
         <v>13</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="19"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="18">
+      <c r="B19" s="11">
         <v>14</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="19"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="18">
+      <c r="B20" s="11">
         <v>15</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="19"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="22">
+      <c r="B21" s="15">
         <v>16</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L21"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="9.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="16"/>
+    <col min="6" max="6" width="14.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="16"/>
+    <col min="8" max="8" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="16"/>
+    <col min="10" max="10" width="13.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="2">
+        <v>44315</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+    </row>
+    <row r="4" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="11">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="11">
+        <v>5</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="11">
+        <v>7</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="11">
+        <v>8</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="11">
+        <v>9</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="11">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="11">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="15">
+        <v>16</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L21"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="9.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="16"/>
+    <col min="6" max="6" width="14.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="16"/>
+    <col min="8" max="8" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="16"/>
+    <col min="10" max="10" width="13.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="2">
+        <v>44315</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+    </row>
+    <row r="4" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="11">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="11">
+        <v>5</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="11">
+        <v>7</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="11">
+        <v>8</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="11">
+        <v>9</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="11">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="11">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="15">
+        <v>16</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1945,28 +2968,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="23"/>
-    <col min="2" max="2" width="9.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="23"/>
-    <col min="6" max="6" width="14.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="23"/>
-    <col min="8" max="8" width="11.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="23"/>
-    <col min="10" max="10" width="13.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="9.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="16"/>
+    <col min="6" max="6" width="14.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="16"/>
+    <col min="8" max="8" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="16"/>
+    <col min="10" max="10" width="13.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1974,391 +2997,395 @@
       <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3">
+      <c r="I2" s="20"/>
+      <c r="J2" s="2">
         <v>44315</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="C3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
+      <c r="C4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="15">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="C6" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="C7" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="19"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="19"/>
+      <c r="C8" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="18">
+      <c r="B9" s="11">
         <v>4</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="19"/>
+      <c r="C9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="18">
+      <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="19"/>
+      <c r="C10" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="18">
+      <c r="B11" s="11">
         <v>6</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="19"/>
+      <c r="C11" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="18">
+      <c r="B12" s="11">
         <v>7</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="19"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="18">
+      <c r="B13" s="11">
         <v>8</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="19"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="18">
+      <c r="B14" s="11">
         <v>9</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="19"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="18">
+      <c r="B15" s="11">
         <v>10</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="19"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="18">
+      <c r="B16" s="11">
         <v>11</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="19"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="18">
+      <c r="B17" s="11">
         <v>12</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="19"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="18">
+      <c r="B18" s="11">
         <v>13</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="19"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="18">
+      <c r="B19" s="11">
         <v>14</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="19"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="18">
+      <c r="B20" s="11">
         <v>15</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="19"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="22">
+      <c r="B21" s="15">
         <v>16</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
